--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Diedrich/Jacques_Diedrich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Diedrich/Jacques_Diedrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Diedrich (né le 12 octobre 1930 à Argenteuil et décédé le 13 avril 2005 à Dijon[1]) est un entomologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Diedrich (né le 12 octobre 1930 à Argenteuil et décédé le 13 avril 2005 à Dijon) est un entomologiste français.
 Il est spécialisé dans les coléoptères Cetoniidae et Carabidae.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La meilleure biographie parue est certainement celle de son ami Philippe Darge[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La meilleure biographie parue est certainement celle de son ami Philippe Darge.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie particulièrement les cétoines malgaches avec l'aide de Renaud Paulian et de Pierre Viette et publie un catalogue des cétoines de la sous-région malgache[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie particulièrement les cétoines malgaches avec l'aide de Renaud Paulian et de Pierre Viette et publie un catalogue des cétoines de la sous-région malgache.
 Il révise aussi plusieurs notes et descriptions de cétoines malgaches.
 Une nouvelle clef de détermination des Cetoniidae malgaches était en cours d'écriture ; sa disparition brutale l'empêche de la publier.
 </t>
